--- a/biology/Zoologie/Ebelingia_forcipata/Ebelingia_forcipata.xlsx
+++ b/biology/Zoologie/Ebelingia_forcipata/Ebelingia_forcipata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ebelingia forcipata est une espèce d'araignées aranéomorphes de la famille des Thomisidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ebelingia forcipata est une espèce d'araignées aranéomorphes de la famille des Thomisidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Chine[1]. Elle se rencontre au Fujian et au Jiangxi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Chine. Elle se rencontre au Fujian et au Jiangxi.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,30 mm[3].
-Le mâle décrit par Liu, Ying, Fomichev, Zhao, Li, Xiao et Xu en 2022 mesure 2,60 mm et la femelle 3,69 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,30 mm.
+Le mâle décrit par Liu, Ying, Fomichev, Zhao, Li, Xiao et Xu en 2022 mesure 2,60 mm et la femelle 3,69 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Misumenops forcipata par Song et Zhu en 1993. Elle est placée dans le genre Ebrechtella par Lehtinen en 2004[4] puis dans le genre Ebelingia par Liu, Ying, Fomichev, Zhao, Li, Xiao et Xu en 2022[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Misumenops forcipata par Song et Zhu en 1993. Elle est placée dans le genre Ebrechtella par Lehtinen en 2004 puis dans le genre Ebelingia par Liu, Ying, Fomichev, Zhao, Li, Xiao et Xu en 2022.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Song, Zhu &amp; Li, 1993 : Arachnida: Araneae. Animals of Longqi Mountain. China Forestry Publishing House, Beijing, p. 852-890.</t>
         </is>
